--- a/data/models/questions-skill-model1b_leak.xlsx
+++ b/data/models/questions-skill-model1b_leak.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/bn-based-learning-networks-with-noisy-gates/data/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/CAT-unplugged/data/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BD819B-2A52-4E48-9F52-C09DCB8503B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7541FCF4-4CD6-ED4B-B841-AB34A138CFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1400" windowWidth="30720" windowHeight="17240" xr2:uid="{3D5E00E8-EA45-C34D-85AA-17AD78DA61C2}"/>
   </bookViews>
@@ -102,12 +102,6 @@
     <t>copy</t>
   </si>
   <si>
-    <t>fillEmpty</t>
-  </si>
-  <si>
-    <t>paint square monochromatic</t>
-  </si>
-  <si>
     <t>Has the pupil solved the schema with 0D VSF?</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
   </si>
   <si>
     <t>Has the pupil solved the schema with 2D V?</t>
-  </si>
-  <si>
-    <t>paintDot</t>
   </si>
   <si>
     <t>E1</t>
@@ -168,21 +159,6 @@
     <t>E10</t>
   </si>
   <si>
-    <t>paint row column monochromatic</t>
-  </si>
-  <si>
-    <t>paint diagonal monochromatic</t>
-  </si>
-  <si>
-    <t>paint L monochromatic</t>
-  </si>
-  <si>
-    <t>paint zigzag monochromatic</t>
-  </si>
-  <si>
-    <t>paint row column polychromatic</t>
-  </si>
-  <si>
     <t>extra</t>
   </si>
   <si>
@@ -192,7 +168,31 @@
     <t>0D V</t>
   </si>
   <si>
-    <t>paint diagonal or zigzag polychromatic</t>
+    <t>paint_dot</t>
+  </si>
+  <si>
+    <t>fill_empty</t>
+  </si>
+  <si>
+    <t>paint_row_column_monochromatic</t>
+  </si>
+  <si>
+    <t>paint_square_monochromatic</t>
+  </si>
+  <si>
+    <t>paint_diagonal_monochromatic</t>
+  </si>
+  <si>
+    <t>paint_l_monochromatic</t>
+  </si>
+  <si>
+    <t>paint_zigzag_monochromatic</t>
+  </si>
+  <si>
+    <t>paint_row_column_polychromatic</t>
+  </si>
+  <si>
+    <t>paint_diagonal_or_zigzag_polychromatic</t>
   </si>
 </sst>
 </file>
@@ -602,6 +602,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -617,15 +635,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -634,15 +643,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,7 +970,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C241" sqref="C241"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,44 +992,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:352" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="50" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="51"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="57"/>
       <c r="W1" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:352" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="9"/>
@@ -1068,38 +1068,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:352" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+    <row r="3" spans="1:352" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="62"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="11" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="J3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="6" t="s">
@@ -1109,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="15" t="s">
         <v>5</v>
@@ -1130,7 +1130,7 @@
         <v>10</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
@@ -1463,38 +1463,38 @@
       <c r="MN3" s="5"/>
     </row>
     <row r="4" spans="1:352" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="H4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="L4" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="M4" t="s">
         <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>43</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>12</v>
@@ -1524,11 +1524,11 @@
         <v>19</v>
       </c>
       <c r="W4" s="40" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:352" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61">
+      <c r="A5" s="53">
         <v>1</v>
       </c>
       <c r="B5" s="48">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C5" s="19" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D5" s="34">
         <v>0.8</v>
@@ -1929,13 +1929,13 @@
       <c r="MN5" s="2"/>
     </row>
     <row r="6" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="48">
         <v>2</v>
       </c>
       <c r="C6" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D6" s="35">
         <v>0</v>
@@ -1999,13 +1999,13 @@
       </c>
     </row>
     <row r="7" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="48">
         <v>3</v>
       </c>
       <c r="C7" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D7" s="35">
         <v>0</v>
@@ -2069,13 +2069,13 @@
       </c>
     </row>
     <row r="8" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="48">
         <v>4</v>
       </c>
       <c r="C8" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D8" s="35">
         <v>0</v>
@@ -2139,13 +2139,13 @@
       </c>
     </row>
     <row r="9" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="48">
         <v>5</v>
       </c>
       <c r="C9" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D9" s="35">
         <v>0</v>
@@ -2209,13 +2209,13 @@
       </c>
     </row>
     <row r="10" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="48">
         <v>6</v>
       </c>
       <c r="C10" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D10" s="35">
         <v>0</v>
@@ -2279,13 +2279,13 @@
       </c>
     </row>
     <row r="11" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="48">
         <v>7</v>
       </c>
       <c r="C11" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D11" s="35">
         <v>0</v>
@@ -2349,13 +2349,13 @@
       </c>
     </row>
     <row r="12" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="48">
         <v>8</v>
       </c>
       <c r="C12" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D12" s="35">
         <v>0</v>
@@ -2419,13 +2419,13 @@
       </c>
     </row>
     <row r="13" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="48">
         <v>9</v>
       </c>
       <c r="C13" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D13" s="35">
         <v>0</v>
@@ -2489,7 +2489,7 @@
       </c>
     </row>
     <row r="14" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="48">
         <v>10</v>
       </c>
@@ -2559,12 +2559,12 @@
       </c>
     </row>
     <row r="15" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="48">
         <v>11</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="35">
         <v>0.8</v>
@@ -2628,12 +2628,12 @@
       </c>
     </row>
     <row r="16" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="48">
         <v>12</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="35">
         <v>0.8</v>
@@ -2697,12 +2697,12 @@
       </c>
     </row>
     <row r="17" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="48">
         <v>13</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="35">
         <v>0.8</v>
@@ -2766,12 +2766,12 @@
       </c>
     </row>
     <row r="18" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="48">
         <v>14</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="35">
         <v>0.8</v>
@@ -2835,12 +2835,12 @@
       </c>
     </row>
     <row r="19" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="48">
         <v>15</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="35">
         <v>0.8</v>
@@ -2904,12 +2904,12 @@
       </c>
     </row>
     <row r="20" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="48">
         <v>16</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="35">
         <v>0.8</v>
@@ -2973,12 +2973,12 @@
       </c>
     </row>
     <row r="21" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="48">
         <v>17</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="35">
         <v>0.8</v>
@@ -3042,12 +3042,12 @@
       </c>
     </row>
     <row r="22" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="48">
         <v>18</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="35">
         <v>0.8</v>
@@ -3111,12 +3111,12 @@
       </c>
     </row>
     <row r="23" spans="1:352" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="49">
         <v>19</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="36">
         <v>0.8</v>
@@ -3180,7 +3180,7 @@
       </c>
     </row>
     <row r="24" spans="1:352" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62">
+      <c r="A24" s="54">
         <v>2</v>
       </c>
       <c r="B24" s="48">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="C24" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D24" s="35">
         <v>0.8</v>
@@ -3581,13 +3581,13 @@
       <c r="MN24" s="2"/>
     </row>
     <row r="25" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="48">
         <v>2</v>
       </c>
       <c r="C25" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D25" s="35">
         <v>0</v>
@@ -3651,13 +3651,13 @@
       </c>
     </row>
     <row r="26" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="48">
         <v>3</v>
       </c>
       <c r="C26" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D26" s="35">
         <v>0</v>
@@ -3721,13 +3721,13 @@
       </c>
     </row>
     <row r="27" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="48">
         <v>4</v>
       </c>
       <c r="C27" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D27" s="35">
         <v>0</v>
@@ -3791,13 +3791,13 @@
       </c>
     </row>
     <row r="28" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="48">
         <v>5</v>
       </c>
       <c r="C28" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D28" s="35">
         <v>0</v>
@@ -3861,13 +3861,13 @@
       </c>
     </row>
     <row r="29" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="48">
         <v>6</v>
       </c>
       <c r="C29" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D29" s="35">
         <v>0</v>
@@ -3931,13 +3931,13 @@
       </c>
     </row>
     <row r="30" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="48">
         <v>7</v>
       </c>
       <c r="C30" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D30" s="35">
         <v>0</v>
@@ -4001,13 +4001,13 @@
       </c>
     </row>
     <row r="31" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="48">
         <v>8</v>
       </c>
       <c r="C31" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D31" s="35">
         <v>0</v>
@@ -4071,13 +4071,13 @@
       </c>
     </row>
     <row r="32" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="48">
         <v>9</v>
       </c>
       <c r="C32" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D32" s="35">
         <v>0</v>
@@ -4141,7 +4141,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="48">
         <v>10</v>
       </c>
@@ -4211,12 +4211,12 @@
       </c>
     </row>
     <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="48">
         <v>11</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D34" s="35">
         <v>0.8</v>
@@ -4280,12 +4280,12 @@
       </c>
     </row>
     <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="48">
         <v>12</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D35" s="35">
         <v>0.8</v>
@@ -4349,12 +4349,12 @@
       </c>
     </row>
     <row r="36" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="48">
         <v>13</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" s="35">
         <v>0.8</v>
@@ -4418,12 +4418,12 @@
       </c>
     </row>
     <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="48">
         <v>14</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D37" s="35">
         <v>0.8</v>
@@ -4487,12 +4487,12 @@
       </c>
     </row>
     <row r="38" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="48">
         <v>15</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D38" s="35">
         <v>0.8</v>
@@ -4556,12 +4556,12 @@
       </c>
     </row>
     <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="48">
         <v>16</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="35">
         <v>0.8</v>
@@ -4625,12 +4625,12 @@
       </c>
     </row>
     <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="48">
         <v>17</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="35">
         <v>0.8</v>
@@ -4694,12 +4694,12 @@
       </c>
     </row>
     <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="48">
         <v>18</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D41" s="35">
         <v>0.8</v>
@@ -4763,12 +4763,12 @@
       </c>
     </row>
     <row r="42" spans="1:23" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="49">
         <v>19</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D42" s="36">
         <v>0.8</v>
@@ -4832,7 +4832,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="61">
+      <c r="A43" s="53">
         <v>3</v>
       </c>
       <c r="B43" s="48">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="C43" s="19" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D43" s="34">
         <v>0.8</v>
@@ -4904,13 +4904,13 @@
       </c>
     </row>
     <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="62"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="48">
         <v>2</v>
       </c>
       <c r="C44" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D44" s="35">
         <v>0</v>
@@ -4974,13 +4974,13 @@
       </c>
     </row>
     <row r="45" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="48">
         <v>3</v>
       </c>
       <c r="C45" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D45" s="35">
         <v>0</v>
@@ -5044,13 +5044,13 @@
       </c>
     </row>
     <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="62"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="48">
         <v>4</v>
       </c>
       <c r="C46" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D46" s="35">
         <v>0</v>
@@ -5114,13 +5114,13 @@
       </c>
     </row>
     <row r="47" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="62"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="48">
         <v>5</v>
       </c>
       <c r="C47" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D47" s="35">
         <v>0</v>
@@ -5184,13 +5184,13 @@
       </c>
     </row>
     <row r="48" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="62"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="48">
         <v>6</v>
       </c>
       <c r="C48" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D48" s="35">
         <v>0</v>
@@ -5254,13 +5254,13 @@
       </c>
     </row>
     <row r="49" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="62"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="48">
         <v>7</v>
       </c>
       <c r="C49" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D49" s="35">
         <v>0</v>
@@ -5324,13 +5324,13 @@
       </c>
     </row>
     <row r="50" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="62"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="48">
         <v>8</v>
       </c>
       <c r="C50" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D50" s="35">
         <v>0</v>
@@ -5394,13 +5394,13 @@
       </c>
     </row>
     <row r="51" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="62"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="48">
         <v>9</v>
       </c>
       <c r="C51" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D51" s="35">
         <v>0</v>
@@ -5464,7 +5464,7 @@
       </c>
     </row>
     <row r="52" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="62"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="48">
         <v>10</v>
       </c>
@@ -5534,12 +5534,12 @@
       </c>
     </row>
     <row r="53" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="62"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="48">
         <v>11</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D53" s="35">
         <v>0.8</v>
@@ -5603,12 +5603,12 @@
       </c>
     </row>
     <row r="54" spans="1:352" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="62"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="48">
         <v>12</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D54" s="35">
         <v>0.8</v>
@@ -5672,12 +5672,12 @@
       </c>
     </row>
     <row r="55" spans="1:352" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="62"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="48">
         <v>13</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D55" s="35">
         <v>0.8</v>
@@ -6070,12 +6070,12 @@
       <c r="MN55" s="2"/>
     </row>
     <row r="56" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A56" s="62"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="48">
         <v>14</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D56" s="35">
         <v>0.8</v>
@@ -6139,12 +6139,12 @@
       </c>
     </row>
     <row r="57" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A57" s="62"/>
+      <c r="A57" s="54"/>
       <c r="B57" s="48">
         <v>15</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D57" s="35">
         <v>0.8</v>
@@ -6208,12 +6208,12 @@
       </c>
     </row>
     <row r="58" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A58" s="62"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="48">
         <v>16</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" s="35">
         <v>0.8</v>
@@ -6277,12 +6277,12 @@
       </c>
     </row>
     <row r="59" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A59" s="62"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="48">
         <v>17</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D59" s="35">
         <v>0.8</v>
@@ -6346,12 +6346,12 @@
       </c>
     </row>
     <row r="60" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A60" s="62"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="48">
         <v>18</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D60" s="35">
         <v>0.8</v>
@@ -6415,12 +6415,12 @@
       </c>
     </row>
     <row r="61" spans="1:352" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="63"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="49">
         <v>19</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D61" s="36">
         <v>0.8</v>
@@ -6484,7 +6484,7 @@
       </c>
     </row>
     <row r="62" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A62" s="62">
+      <c r="A62" s="54">
         <v>4</v>
       </c>
       <c r="B62" s="48">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="C62" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D62" s="34">
         <v>0.8</v>
@@ -6556,13 +6556,13 @@
       </c>
     </row>
     <row r="63" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A63" s="62"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="48">
         <v>2</v>
       </c>
       <c r="C63" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D63" s="35">
         <v>0</v>
@@ -6626,13 +6626,13 @@
       </c>
     </row>
     <row r="64" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A64" s="62"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="48">
         <v>3</v>
       </c>
       <c r="C64" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D64" s="35">
         <v>0</v>
@@ -6696,13 +6696,13 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A65" s="62"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="48">
         <v>4</v>
       </c>
       <c r="C65" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D65" s="35">
         <v>0</v>
@@ -6766,13 +6766,13 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A66" s="62"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="48">
         <v>5</v>
       </c>
       <c r="C66" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D66" s="35">
         <v>0</v>
@@ -6836,13 +6836,13 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A67" s="62"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="48">
         <v>6</v>
       </c>
       <c r="C67" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D67" s="35">
         <v>0</v>
@@ -6906,13 +6906,13 @@
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A68" s="62"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="48">
         <v>7</v>
       </c>
       <c r="C68" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D68" s="35">
         <v>0</v>
@@ -6976,13 +6976,13 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A69" s="62"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="48">
         <v>8</v>
       </c>
       <c r="C69" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D69" s="35">
         <v>0</v>
@@ -7046,13 +7046,13 @@
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A70" s="62"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="48">
         <v>9</v>
       </c>
       <c r="C70" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D70" s="35">
         <v>0</v>
@@ -7116,7 +7116,7 @@
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A71" s="62"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="48">
         <v>10</v>
       </c>
@@ -7186,12 +7186,12 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A72" s="62"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="48">
         <v>11</v>
       </c>
       <c r="C72" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D72" s="35">
         <v>0.8</v>
@@ -7255,12 +7255,12 @@
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A73" s="62"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="48">
         <v>12</v>
       </c>
       <c r="C73" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D73" s="35">
         <v>0.8</v>
@@ -7324,12 +7324,12 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A74" s="62"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="48">
         <v>13</v>
       </c>
       <c r="C74" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D74" s="35">
         <v>0.8</v>
@@ -7393,12 +7393,12 @@
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A75" s="62"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="48">
         <v>14</v>
       </c>
       <c r="C75" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D75" s="35">
         <v>0.8</v>
@@ -7462,12 +7462,12 @@
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A76" s="62"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="48">
         <v>15</v>
       </c>
       <c r="C76" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D76" s="35">
         <v>0.8</v>
@@ -7531,12 +7531,12 @@
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A77" s="62"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="48">
         <v>16</v>
       </c>
       <c r="C77" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="35">
         <v>0.8</v>
@@ -7600,12 +7600,12 @@
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A78" s="62"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="48">
         <v>17</v>
       </c>
       <c r="C78" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D78" s="35">
         <v>0.8</v>
@@ -7669,12 +7669,12 @@
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A79" s="62"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="48">
         <v>18</v>
       </c>
       <c r="C79" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D79" s="35">
         <v>0.8</v>
@@ -7738,12 +7738,12 @@
       </c>
     </row>
     <row r="80" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="63"/>
+      <c r="A80" s="55"/>
       <c r="B80" s="49">
         <v>19</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D80" s="36">
         <v>0.8</v>
@@ -7807,7 +7807,7 @@
       </c>
     </row>
     <row r="81" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A81" s="62">
+      <c r="A81" s="54">
         <v>5</v>
       </c>
       <c r="B81" s="48">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="C81" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D81" s="34">
         <v>0.8</v>
@@ -7879,13 +7879,13 @@
       </c>
     </row>
     <row r="82" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A82" s="62"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="48">
         <v>2</v>
       </c>
       <c r="C82" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D82" s="35">
         <v>0</v>
@@ -7949,13 +7949,13 @@
       </c>
     </row>
     <row r="83" spans="1:352" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="62"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="48">
         <v>3</v>
       </c>
       <c r="C83" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D83" s="35">
         <v>0</v>
@@ -8348,13 +8348,13 @@
       <c r="MN83" s="2"/>
     </row>
     <row r="84" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A84" s="62"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="48">
         <v>4</v>
       </c>
       <c r="C84" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D84" s="35">
         <v>0</v>
@@ -8418,13 +8418,13 @@
       </c>
     </row>
     <row r="85" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A85" s="62"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="48">
         <v>5</v>
       </c>
       <c r="C85" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D85" s="35">
         <v>0</v>
@@ -8488,13 +8488,13 @@
       </c>
     </row>
     <row r="86" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A86" s="62"/>
+      <c r="A86" s="54"/>
       <c r="B86" s="48">
         <v>6</v>
       </c>
       <c r="C86" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D86" s="35">
         <v>0</v>
@@ -8558,13 +8558,13 @@
       </c>
     </row>
     <row r="87" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A87" s="62"/>
+      <c r="A87" s="54"/>
       <c r="B87" s="48">
         <v>7</v>
       </c>
       <c r="C87" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D87" s="35">
         <v>0</v>
@@ -8628,13 +8628,13 @@
       </c>
     </row>
     <row r="88" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A88" s="62"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="48">
         <v>8</v>
       </c>
       <c r="C88" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D88" s="35">
         <v>0</v>
@@ -8698,13 +8698,13 @@
       </c>
     </row>
     <row r="89" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A89" s="62"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="48">
         <v>9</v>
       </c>
       <c r="C89" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D89" s="35">
         <v>0</v>
@@ -8768,7 +8768,7 @@
       </c>
     </row>
     <row r="90" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A90" s="62"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="48">
         <v>10</v>
       </c>
@@ -8838,12 +8838,12 @@
       </c>
     </row>
     <row r="91" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A91" s="62"/>
+      <c r="A91" s="54"/>
       <c r="B91" s="48">
         <v>11</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D91" s="35">
         <v>0.8</v>
@@ -8907,12 +8907,12 @@
       </c>
     </row>
     <row r="92" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A92" s="62"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="48">
         <v>12</v>
       </c>
       <c r="C92" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D92" s="35">
         <v>0.8</v>
@@ -8976,12 +8976,12 @@
       </c>
     </row>
     <row r="93" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A93" s="62"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="48">
         <v>13</v>
       </c>
       <c r="C93" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D93" s="35">
         <v>0.8</v>
@@ -9045,12 +9045,12 @@
       </c>
     </row>
     <row r="94" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A94" s="62"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="48">
         <v>14</v>
       </c>
       <c r="C94" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D94" s="35">
         <v>0.8</v>
@@ -9114,12 +9114,12 @@
       </c>
     </row>
     <row r="95" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A95" s="62"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="48">
         <v>15</v>
       </c>
       <c r="C95" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D95" s="35">
         <v>0.8</v>
@@ -9183,12 +9183,12 @@
       </c>
     </row>
     <row r="96" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A96" s="62"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="48">
         <v>16</v>
       </c>
       <c r="C96" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D96" s="35">
         <v>0.8</v>
@@ -9252,12 +9252,12 @@
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A97" s="62"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="48">
         <v>17</v>
       </c>
       <c r="C97" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D97" s="35">
         <v>0.8</v>
@@ -9321,12 +9321,12 @@
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A98" s="62"/>
+      <c r="A98" s="54"/>
       <c r="B98" s="48">
         <v>18</v>
       </c>
       <c r="C98" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D98" s="35">
         <v>0.8</v>
@@ -9390,12 +9390,12 @@
       </c>
     </row>
     <row r="99" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="63"/>
+      <c r="A99" s="55"/>
       <c r="B99" s="49">
         <v>19</v>
       </c>
       <c r="C99" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D99" s="36">
         <v>0.8</v>
@@ -9459,7 +9459,7 @@
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A100" s="62">
+      <c r="A100" s="54">
         <v>6</v>
       </c>
       <c r="B100" s="48">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="C100" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D100" s="34">
         <v>0.8</v>
@@ -9531,13 +9531,13 @@
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A101" s="62"/>
+      <c r="A101" s="54"/>
       <c r="B101" s="48">
         <v>2</v>
       </c>
       <c r="C101" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D101" s="35">
         <v>0</v>
@@ -9601,13 +9601,13 @@
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A102" s="62"/>
+      <c r="A102" s="54"/>
       <c r="B102" s="48">
         <v>3</v>
       </c>
       <c r="C102" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D102" s="35">
         <v>0</v>
@@ -9671,13 +9671,13 @@
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A103" s="62"/>
+      <c r="A103" s="54"/>
       <c r="B103" s="48">
         <v>4</v>
       </c>
       <c r="C103" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D103" s="35">
         <v>0</v>
@@ -9741,13 +9741,13 @@
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A104" s="62"/>
+      <c r="A104" s="54"/>
       <c r="B104" s="48">
         <v>5</v>
       </c>
       <c r="C104" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D104" s="35">
         <v>0</v>
@@ -9811,13 +9811,13 @@
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A105" s="62"/>
+      <c r="A105" s="54"/>
       <c r="B105" s="48">
         <v>6</v>
       </c>
       <c r="C105" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D105" s="35">
         <v>0</v>
@@ -9881,13 +9881,13 @@
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A106" s="62"/>
+      <c r="A106" s="54"/>
       <c r="B106" s="48">
         <v>7</v>
       </c>
       <c r="C106" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D106" s="35">
         <v>0</v>
@@ -9951,13 +9951,13 @@
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A107" s="62"/>
+      <c r="A107" s="54"/>
       <c r="B107" s="48">
         <v>8</v>
       </c>
       <c r="C107" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D107" s="35">
         <v>0</v>
@@ -10021,13 +10021,13 @@
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A108" s="62"/>
+      <c r="A108" s="54"/>
       <c r="B108" s="48">
         <v>9</v>
       </c>
       <c r="C108" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D108" s="35">
         <v>0</v>
@@ -10091,7 +10091,7 @@
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A109" s="62"/>
+      <c r="A109" s="54"/>
       <c r="B109" s="48">
         <v>10</v>
       </c>
@@ -10161,12 +10161,12 @@
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A110" s="62"/>
+      <c r="A110" s="54"/>
       <c r="B110" s="48">
         <v>11</v>
       </c>
       <c r="C110" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D110" s="35">
         <v>0.8</v>
@@ -10230,12 +10230,12 @@
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A111" s="62"/>
+      <c r="A111" s="54"/>
       <c r="B111" s="48">
         <v>12</v>
       </c>
       <c r="C111" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D111" s="35">
         <v>0.8</v>
@@ -10299,12 +10299,12 @@
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A112" s="62"/>
+      <c r="A112" s="54"/>
       <c r="B112" s="48">
         <v>13</v>
       </c>
       <c r="C112" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D112" s="35">
         <v>0.8</v>
@@ -10368,12 +10368,12 @@
       </c>
     </row>
     <row r="113" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A113" s="62"/>
+      <c r="A113" s="54"/>
       <c r="B113" s="48">
         <v>14</v>
       </c>
       <c r="C113" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D113" s="35">
         <v>0.8</v>
@@ -10437,12 +10437,12 @@
       </c>
     </row>
     <row r="114" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A114" s="62"/>
+      <c r="A114" s="54"/>
       <c r="B114" s="48">
         <v>15</v>
       </c>
       <c r="C114" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D114" s="35">
         <v>0.8</v>
@@ -10506,12 +10506,12 @@
       </c>
     </row>
     <row r="115" spans="1:352" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="62"/>
+      <c r="A115" s="54"/>
       <c r="B115" s="48">
         <v>16</v>
       </c>
       <c r="C115" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D115" s="35">
         <v>0.8</v>
@@ -10904,12 +10904,12 @@
       <c r="MN115" s="2"/>
     </row>
     <row r="116" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A116" s="62"/>
+      <c r="A116" s="54"/>
       <c r="B116" s="48">
         <v>17</v>
       </c>
       <c r="C116" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D116" s="35">
         <v>0.8</v>
@@ -10973,12 +10973,12 @@
       </c>
     </row>
     <row r="117" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A117" s="62"/>
+      <c r="A117" s="54"/>
       <c r="B117" s="48">
         <v>18</v>
       </c>
       <c r="C117" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D117" s="35">
         <v>0.8</v>
@@ -11042,12 +11042,12 @@
       </c>
     </row>
     <row r="118" spans="1:352" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="63"/>
+      <c r="A118" s="55"/>
       <c r="B118" s="49">
         <v>19</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D118" s="36">
         <v>0.8</v>
@@ -11111,7 +11111,7 @@
       </c>
     </row>
     <row r="119" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A119" s="62">
+      <c r="A119" s="54">
         <v>7</v>
       </c>
       <c r="B119" s="48">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="C119" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D119" s="34">
         <v>0.8</v>
@@ -11183,13 +11183,13 @@
       </c>
     </row>
     <row r="120" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A120" s="62"/>
+      <c r="A120" s="54"/>
       <c r="B120" s="48">
         <v>2</v>
       </c>
       <c r="C120" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D120" s="35">
         <v>0</v>
@@ -11253,13 +11253,13 @@
       </c>
     </row>
     <row r="121" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A121" s="62"/>
+      <c r="A121" s="54"/>
       <c r="B121" s="48">
         <v>3</v>
       </c>
       <c r="C121" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D121" s="35">
         <v>0</v>
@@ -11323,13 +11323,13 @@
       </c>
     </row>
     <row r="122" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A122" s="62"/>
+      <c r="A122" s="54"/>
       <c r="B122" s="48">
         <v>4</v>
       </c>
       <c r="C122" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D122" s="35">
         <v>0</v>
@@ -11393,13 +11393,13 @@
       </c>
     </row>
     <row r="123" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A123" s="62"/>
+      <c r="A123" s="54"/>
       <c r="B123" s="48">
         <v>5</v>
       </c>
       <c r="C123" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D123" s="35">
         <v>0</v>
@@ -11463,13 +11463,13 @@
       </c>
     </row>
     <row r="124" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A124" s="62"/>
+      <c r="A124" s="54"/>
       <c r="B124" s="48">
         <v>6</v>
       </c>
       <c r="C124" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D124" s="35">
         <v>0</v>
@@ -11533,13 +11533,13 @@
       </c>
     </row>
     <row r="125" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A125" s="62"/>
+      <c r="A125" s="54"/>
       <c r="B125" s="48">
         <v>7</v>
       </c>
       <c r="C125" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D125" s="35">
         <v>0</v>
@@ -11603,13 +11603,13 @@
       </c>
     </row>
     <row r="126" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A126" s="62"/>
+      <c r="A126" s="54"/>
       <c r="B126" s="48">
         <v>8</v>
       </c>
       <c r="C126" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D126" s="35">
         <v>0</v>
@@ -11673,13 +11673,13 @@
       </c>
     </row>
     <row r="127" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A127" s="62"/>
+      <c r="A127" s="54"/>
       <c r="B127" s="48">
         <v>9</v>
       </c>
       <c r="C127" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D127" s="35">
         <v>0</v>
@@ -11743,7 +11743,7 @@
       </c>
     </row>
     <row r="128" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A128" s="62"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="48">
         <v>10</v>
       </c>
@@ -11813,12 +11813,12 @@
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A129" s="62"/>
+      <c r="A129" s="54"/>
       <c r="B129" s="48">
         <v>11</v>
       </c>
       <c r="C129" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D129" s="35">
         <v>0.8</v>
@@ -11882,12 +11882,12 @@
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A130" s="62"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="48">
         <v>12</v>
       </c>
       <c r="C130" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D130" s="35">
         <v>0.8</v>
@@ -11951,12 +11951,12 @@
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A131" s="62"/>
+      <c r="A131" s="54"/>
       <c r="B131" s="48">
         <v>13</v>
       </c>
       <c r="C131" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D131" s="35">
         <v>0.8</v>
@@ -12020,12 +12020,12 @@
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A132" s="62"/>
+      <c r="A132" s="54"/>
       <c r="B132" s="48">
         <v>14</v>
       </c>
       <c r="C132" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D132" s="35">
         <v>0.8</v>
@@ -12089,12 +12089,12 @@
       </c>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A133" s="62"/>
+      <c r="A133" s="54"/>
       <c r="B133" s="48">
         <v>15</v>
       </c>
       <c r="C133" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D133" s="35">
         <v>0.8</v>
@@ -12158,12 +12158,12 @@
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A134" s="62"/>
+      <c r="A134" s="54"/>
       <c r="B134" s="48">
         <v>16</v>
       </c>
       <c r="C134" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D134" s="35">
         <v>0.8</v>
@@ -12227,12 +12227,12 @@
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A135" s="62"/>
+      <c r="A135" s="54"/>
       <c r="B135" s="48">
         <v>17</v>
       </c>
       <c r="C135" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D135" s="35">
         <v>0.8</v>
@@ -12296,12 +12296,12 @@
       </c>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A136" s="62"/>
+      <c r="A136" s="54"/>
       <c r="B136" s="48">
         <v>18</v>
       </c>
       <c r="C136" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D136" s="35">
         <v>0.8</v>
@@ -12365,12 +12365,12 @@
       </c>
     </row>
     <row r="137" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="63"/>
+      <c r="A137" s="55"/>
       <c r="B137" s="49">
         <v>19</v>
       </c>
       <c r="C137" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D137" s="36">
         <v>0.8</v>
@@ -12434,7 +12434,7 @@
       </c>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A138" s="62">
+      <c r="A138" s="54">
         <v>8</v>
       </c>
       <c r="B138" s="48">
@@ -12442,7 +12442,7 @@
       </c>
       <c r="C138" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D138" s="34">
         <v>0.8</v>
@@ -12506,13 +12506,13 @@
       </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A139" s="62"/>
+      <c r="A139" s="54"/>
       <c r="B139" s="48">
         <v>2</v>
       </c>
       <c r="C139" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D139" s="35">
         <v>0</v>
@@ -12576,13 +12576,13 @@
       </c>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A140" s="62"/>
+      <c r="A140" s="54"/>
       <c r="B140" s="48">
         <v>3</v>
       </c>
       <c r="C140" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D140" s="35">
         <v>0</v>
@@ -12646,13 +12646,13 @@
       </c>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A141" s="62"/>
+      <c r="A141" s="54"/>
       <c r="B141" s="48">
         <v>4</v>
       </c>
       <c r="C141" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D141" s="35">
         <v>0</v>
@@ -12716,13 +12716,13 @@
       </c>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A142" s="62"/>
+      <c r="A142" s="54"/>
       <c r="B142" s="48">
         <v>5</v>
       </c>
       <c r="C142" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D142" s="35">
         <v>0</v>
@@ -12786,13 +12786,13 @@
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A143" s="62"/>
+      <c r="A143" s="54"/>
       <c r="B143" s="48">
         <v>6</v>
       </c>
       <c r="C143" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D143" s="35">
         <v>0</v>
@@ -12856,13 +12856,13 @@
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A144" s="62"/>
+      <c r="A144" s="54"/>
       <c r="B144" s="48">
         <v>7</v>
       </c>
       <c r="C144" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D144" s="35">
         <v>0</v>
@@ -12926,13 +12926,13 @@
       </c>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A145" s="62"/>
+      <c r="A145" s="54"/>
       <c r="B145" s="48">
         <v>8</v>
       </c>
       <c r="C145" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D145" s="35">
         <v>0</v>
@@ -12996,13 +12996,13 @@
       </c>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A146" s="62"/>
+      <c r="A146" s="54"/>
       <c r="B146" s="48">
         <v>9</v>
       </c>
       <c r="C146" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D146" s="35">
         <v>0</v>
@@ -13066,7 +13066,7 @@
       </c>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A147" s="62"/>
+      <c r="A147" s="54"/>
       <c r="B147" s="48">
         <v>10</v>
       </c>
@@ -13136,12 +13136,12 @@
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A148" s="62"/>
+      <c r="A148" s="54"/>
       <c r="B148" s="48">
         <v>11</v>
       </c>
       <c r="C148" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D148" s="35">
         <v>0.8</v>
@@ -13205,12 +13205,12 @@
       </c>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A149" s="62"/>
+      <c r="A149" s="54"/>
       <c r="B149" s="48">
         <v>12</v>
       </c>
       <c r="C149" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D149" s="35">
         <v>0.8</v>
@@ -13274,12 +13274,12 @@
       </c>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A150" s="62"/>
+      <c r="A150" s="54"/>
       <c r="B150" s="48">
         <v>13</v>
       </c>
       <c r="C150" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D150" s="35">
         <v>0.8</v>
@@ -13343,12 +13343,12 @@
       </c>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A151" s="62"/>
+      <c r="A151" s="54"/>
       <c r="B151" s="48">
         <v>14</v>
       </c>
       <c r="C151" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D151" s="35">
         <v>0.8</v>
@@ -13412,12 +13412,12 @@
       </c>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A152" s="62"/>
+      <c r="A152" s="54"/>
       <c r="B152" s="48">
         <v>15</v>
       </c>
       <c r="C152" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D152" s="35">
         <v>0.8</v>
@@ -13481,12 +13481,12 @@
       </c>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A153" s="62"/>
+      <c r="A153" s="54"/>
       <c r="B153" s="48">
         <v>16</v>
       </c>
       <c r="C153" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D153" s="35">
         <v>0.8</v>
@@ -13550,12 +13550,12 @@
       </c>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A154" s="62"/>
+      <c r="A154" s="54"/>
       <c r="B154" s="48">
         <v>17</v>
       </c>
       <c r="C154" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D154" s="35">
         <v>0.8</v>
@@ -13619,12 +13619,12 @@
       </c>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A155" s="62"/>
+      <c r="A155" s="54"/>
       <c r="B155" s="48">
         <v>18</v>
       </c>
       <c r="C155" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D155" s="35">
         <v>0.8</v>
@@ -13688,12 +13688,12 @@
       </c>
     </row>
     <row r="156" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="63"/>
+      <c r="A156" s="55"/>
       <c r="B156" s="49">
         <v>19</v>
       </c>
       <c r="C156" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D156" s="36">
         <v>0.8</v>
@@ -13757,7 +13757,7 @@
       </c>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A157" s="62">
+      <c r="A157" s="54">
         <v>9</v>
       </c>
       <c r="B157" s="48">
@@ -13765,7 +13765,7 @@
       </c>
       <c r="C157" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D157" s="34">
         <v>0.8</v>
@@ -13829,13 +13829,13 @@
       </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A158" s="62"/>
+      <c r="A158" s="54"/>
       <c r="B158" s="48">
         <v>2</v>
       </c>
       <c r="C158" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D158" s="35">
         <v>0</v>
@@ -13899,13 +13899,13 @@
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A159" s="62"/>
+      <c r="A159" s="54"/>
       <c r="B159" s="48">
         <v>3</v>
       </c>
       <c r="C159" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D159" s="35">
         <v>0</v>
@@ -13969,13 +13969,13 @@
       </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A160" s="62"/>
+      <c r="A160" s="54"/>
       <c r="B160" s="48">
         <v>4</v>
       </c>
       <c r="C160" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D160" s="35">
         <v>0</v>
@@ -14039,13 +14039,13 @@
       </c>
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A161" s="62"/>
+      <c r="A161" s="54"/>
       <c r="B161" s="48">
         <v>5</v>
       </c>
       <c r="C161" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D161" s="35">
         <v>0</v>
@@ -14109,13 +14109,13 @@
       </c>
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A162" s="62"/>
+      <c r="A162" s="54"/>
       <c r="B162" s="48">
         <v>6</v>
       </c>
       <c r="C162" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D162" s="35">
         <v>0</v>
@@ -14179,13 +14179,13 @@
       </c>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A163" s="62"/>
+      <c r="A163" s="54"/>
       <c r="B163" s="48">
         <v>7</v>
       </c>
       <c r="C163" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D163" s="35">
         <v>0</v>
@@ -14249,13 +14249,13 @@
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A164" s="62"/>
+      <c r="A164" s="54"/>
       <c r="B164" s="48">
         <v>8</v>
       </c>
       <c r="C164" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D164" s="35">
         <v>0</v>
@@ -14319,13 +14319,13 @@
       </c>
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A165" s="62"/>
+      <c r="A165" s="54"/>
       <c r="B165" s="48">
         <v>9</v>
       </c>
       <c r="C165" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D165" s="35">
         <v>0</v>
@@ -14389,7 +14389,7 @@
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A166" s="62"/>
+      <c r="A166" s="54"/>
       <c r="B166" s="48">
         <v>10</v>
       </c>
@@ -14459,12 +14459,12 @@
       </c>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A167" s="62"/>
+      <c r="A167" s="54"/>
       <c r="B167" s="48">
         <v>11</v>
       </c>
       <c r="C167" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D167" s="35">
         <v>0.8</v>
@@ -14528,12 +14528,12 @@
       </c>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A168" s="62"/>
+      <c r="A168" s="54"/>
       <c r="B168" s="48">
         <v>12</v>
       </c>
       <c r="C168" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D168" s="35">
         <v>0.8</v>
@@ -14597,12 +14597,12 @@
       </c>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A169" s="62"/>
+      <c r="A169" s="54"/>
       <c r="B169" s="48">
         <v>13</v>
       </c>
       <c r="C169" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D169" s="35">
         <v>0.8</v>
@@ -14666,12 +14666,12 @@
       </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A170" s="62"/>
+      <c r="A170" s="54"/>
       <c r="B170" s="48">
         <v>14</v>
       </c>
       <c r="C170" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D170" s="35">
         <v>0.8</v>
@@ -14735,12 +14735,12 @@
       </c>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A171" s="62"/>
+      <c r="A171" s="54"/>
       <c r="B171" s="48">
         <v>15</v>
       </c>
       <c r="C171" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D171" s="35">
         <v>0.8</v>
@@ -14804,12 +14804,12 @@
       </c>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A172" s="62"/>
+      <c r="A172" s="54"/>
       <c r="B172" s="48">
         <v>16</v>
       </c>
       <c r="C172" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D172" s="35">
         <v>0.8</v>
@@ -14873,12 +14873,12 @@
       </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A173" s="62"/>
+      <c r="A173" s="54"/>
       <c r="B173" s="48">
         <v>17</v>
       </c>
       <c r="C173" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D173" s="35">
         <v>0.8</v>
@@ -14942,12 +14942,12 @@
       </c>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A174" s="62"/>
+      <c r="A174" s="54"/>
       <c r="B174" s="48">
         <v>18</v>
       </c>
       <c r="C174" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D174" s="35">
         <v>0.8</v>
@@ -15011,12 +15011,12 @@
       </c>
     </row>
     <row r="175" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="63"/>
+      <c r="A175" s="55"/>
       <c r="B175" s="49">
         <v>19</v>
       </c>
       <c r="C175" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D175" s="36">
         <v>0.8</v>
@@ -15080,7 +15080,7 @@
       </c>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A176" s="62">
+      <c r="A176" s="54">
         <v>10</v>
       </c>
       <c r="B176" s="48">
@@ -15088,7 +15088,7 @@
       </c>
       <c r="C176" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D176" s="34">
         <v>0.8</v>
@@ -15152,13 +15152,13 @@
       </c>
     </row>
     <row r="177" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A177" s="62"/>
+      <c r="A177" s="54"/>
       <c r="B177" s="48">
         <v>2</v>
       </c>
       <c r="C177" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D177" s="35">
         <v>0</v>
@@ -15222,13 +15222,13 @@
       </c>
     </row>
     <row r="178" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A178" s="62"/>
+      <c r="A178" s="54"/>
       <c r="B178" s="48">
         <v>3</v>
       </c>
       <c r="C178" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D178" s="35">
         <v>0</v>
@@ -15292,13 +15292,13 @@
       </c>
     </row>
     <row r="179" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A179" s="62"/>
+      <c r="A179" s="54"/>
       <c r="B179" s="48">
         <v>4</v>
       </c>
       <c r="C179" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D179" s="35">
         <v>0</v>
@@ -15362,13 +15362,13 @@
       </c>
     </row>
     <row r="180" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A180" s="62"/>
+      <c r="A180" s="54"/>
       <c r="B180" s="48">
         <v>5</v>
       </c>
       <c r="C180" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D180" s="35">
         <v>0</v>
@@ -15432,13 +15432,13 @@
       </c>
     </row>
     <row r="181" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A181" s="62"/>
+      <c r="A181" s="54"/>
       <c r="B181" s="48">
         <v>6</v>
       </c>
       <c r="C181" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D181" s="35">
         <v>0</v>
@@ -15502,13 +15502,13 @@
       </c>
     </row>
     <row r="182" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A182" s="62"/>
+      <c r="A182" s="54"/>
       <c r="B182" s="48">
         <v>7</v>
       </c>
       <c r="C182" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D182" s="35">
         <v>0</v>
@@ -15572,13 +15572,13 @@
       </c>
     </row>
     <row r="183" spans="1:352" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="62"/>
+      <c r="A183" s="54"/>
       <c r="B183" s="48">
         <v>8</v>
       </c>
       <c r="C183" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D183" s="35">
         <v>0</v>
@@ -15971,13 +15971,13 @@
       <c r="MN183" s="2"/>
     </row>
     <row r="184" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A184" s="62"/>
+      <c r="A184" s="54"/>
       <c r="B184" s="48">
         <v>9</v>
       </c>
       <c r="C184" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D184" s="35">
         <v>0</v>
@@ -16041,7 +16041,7 @@
       </c>
     </row>
     <row r="185" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A185" s="62"/>
+      <c r="A185" s="54"/>
       <c r="B185" s="48">
         <v>10</v>
       </c>
@@ -16111,12 +16111,12 @@
       </c>
     </row>
     <row r="186" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A186" s="62"/>
+      <c r="A186" s="54"/>
       <c r="B186" s="48">
         <v>11</v>
       </c>
       <c r="C186" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D186" s="35">
         <v>0.8</v>
@@ -16180,12 +16180,12 @@
       </c>
     </row>
     <row r="187" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A187" s="62"/>
+      <c r="A187" s="54"/>
       <c r="B187" s="48">
         <v>12</v>
       </c>
       <c r="C187" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D187" s="35">
         <v>0.8</v>
@@ -16249,12 +16249,12 @@
       </c>
     </row>
     <row r="188" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A188" s="62"/>
+      <c r="A188" s="54"/>
       <c r="B188" s="48">
         <v>13</v>
       </c>
       <c r="C188" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D188" s="35">
         <v>0.8</v>
@@ -16318,12 +16318,12 @@
       </c>
     </row>
     <row r="189" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A189" s="62"/>
+      <c r="A189" s="54"/>
       <c r="B189" s="48">
         <v>14</v>
       </c>
       <c r="C189" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D189" s="35">
         <v>0.8</v>
@@ -16387,12 +16387,12 @@
       </c>
     </row>
     <row r="190" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A190" s="62"/>
+      <c r="A190" s="54"/>
       <c r="B190" s="48">
         <v>15</v>
       </c>
       <c r="C190" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D190" s="35">
         <v>0.8</v>
@@ -16456,12 +16456,12 @@
       </c>
     </row>
     <row r="191" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A191" s="62"/>
+      <c r="A191" s="54"/>
       <c r="B191" s="48">
         <v>16</v>
       </c>
       <c r="C191" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D191" s="35">
         <v>0.8</v>
@@ -16525,12 +16525,12 @@
       </c>
     </row>
     <row r="192" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A192" s="62"/>
+      <c r="A192" s="54"/>
       <c r="B192" s="48">
         <v>17</v>
       </c>
       <c r="C192" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D192" s="35">
         <v>0.8</v>
@@ -16594,12 +16594,12 @@
       </c>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A193" s="62"/>
+      <c r="A193" s="54"/>
       <c r="B193" s="48">
         <v>18</v>
       </c>
       <c r="C193" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D193" s="35">
         <v>0.8</v>
@@ -16663,12 +16663,12 @@
       </c>
     </row>
     <row r="194" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="63"/>
+      <c r="A194" s="55"/>
       <c r="B194" s="49">
         <v>19</v>
       </c>
       <c r="C194" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D194" s="36">
         <v>0.8</v>
@@ -16732,7 +16732,7 @@
       </c>
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A195" s="62">
+      <c r="A195" s="54">
         <v>11</v>
       </c>
       <c r="B195" s="48">
@@ -16740,7 +16740,7 @@
       </c>
       <c r="C195" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D195" s="34">
         <v>0.8</v>
@@ -16804,13 +16804,13 @@
       </c>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A196" s="62"/>
+      <c r="A196" s="54"/>
       <c r="B196" s="48">
         <v>2</v>
       </c>
       <c r="C196" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D196" s="35">
         <v>0</v>
@@ -16874,13 +16874,13 @@
       </c>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A197" s="62"/>
+      <c r="A197" s="54"/>
       <c r="B197" s="48">
         <v>3</v>
       </c>
       <c r="C197" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D197" s="35">
         <v>0</v>
@@ -16944,13 +16944,13 @@
       </c>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A198" s="62"/>
+      <c r="A198" s="54"/>
       <c r="B198" s="48">
         <v>4</v>
       </c>
       <c r="C198" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D198" s="35">
         <v>0</v>
@@ -17014,13 +17014,13 @@
       </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A199" s="62"/>
+      <c r="A199" s="54"/>
       <c r="B199" s="48">
         <v>5</v>
       </c>
       <c r="C199" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D199" s="35">
         <v>0</v>
@@ -17084,13 +17084,13 @@
       </c>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A200" s="62"/>
+      <c r="A200" s="54"/>
       <c r="B200" s="48">
         <v>6</v>
       </c>
       <c r="C200" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D200" s="35">
         <v>0</v>
@@ -17154,13 +17154,13 @@
       </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A201" s="62"/>
+      <c r="A201" s="54"/>
       <c r="B201" s="48">
         <v>7</v>
       </c>
       <c r="C201" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D201" s="35">
         <v>0</v>
@@ -17224,13 +17224,13 @@
       </c>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A202" s="62"/>
+      <c r="A202" s="54"/>
       <c r="B202" s="48">
         <v>8</v>
       </c>
       <c r="C202" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D202" s="35">
         <v>0</v>
@@ -17294,13 +17294,13 @@
       </c>
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A203" s="62"/>
+      <c r="A203" s="54"/>
       <c r="B203" s="48">
         <v>9</v>
       </c>
       <c r="C203" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D203" s="35">
         <v>0</v>
@@ -17364,7 +17364,7 @@
       </c>
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A204" s="62"/>
+      <c r="A204" s="54"/>
       <c r="B204" s="48">
         <v>10</v>
       </c>
@@ -17434,12 +17434,12 @@
       </c>
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A205" s="62"/>
+      <c r="A205" s="54"/>
       <c r="B205" s="48">
         <v>11</v>
       </c>
       <c r="C205" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D205" s="35">
         <v>0.8</v>
@@ -17503,12 +17503,12 @@
       </c>
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A206" s="62"/>
+      <c r="A206" s="54"/>
       <c r="B206" s="48">
         <v>12</v>
       </c>
       <c r="C206" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D206" s="35">
         <v>0.8</v>
@@ -17572,12 +17572,12 @@
       </c>
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A207" s="62"/>
+      <c r="A207" s="54"/>
       <c r="B207" s="48">
         <v>13</v>
       </c>
       <c r="C207" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D207" s="35">
         <v>0.8</v>
@@ -17641,12 +17641,12 @@
       </c>
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A208" s="62"/>
+      <c r="A208" s="54"/>
       <c r="B208" s="48">
         <v>14</v>
       </c>
       <c r="C208" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D208" s="35">
         <v>0.8</v>
@@ -17710,12 +17710,12 @@
       </c>
     </row>
     <row r="209" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A209" s="62"/>
+      <c r="A209" s="54"/>
       <c r="B209" s="48">
         <v>15</v>
       </c>
       <c r="C209" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D209" s="35">
         <v>0.8</v>
@@ -17779,12 +17779,12 @@
       </c>
     </row>
     <row r="210" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A210" s="62"/>
+      <c r="A210" s="54"/>
       <c r="B210" s="48">
         <v>16</v>
       </c>
       <c r="C210" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D210" s="35">
         <v>0.8</v>
@@ -17848,12 +17848,12 @@
       </c>
     </row>
     <row r="211" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A211" s="62"/>
+      <c r="A211" s="54"/>
       <c r="B211" s="48">
         <v>17</v>
       </c>
       <c r="C211" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D211" s="35">
         <v>0.8</v>
@@ -17917,12 +17917,12 @@
       </c>
     </row>
     <row r="212" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A212" s="62"/>
+      <c r="A212" s="54"/>
       <c r="B212" s="48">
         <v>18</v>
       </c>
       <c r="C212" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D212" s="35">
         <v>0.8</v>
@@ -17986,12 +17986,12 @@
       </c>
     </row>
     <row r="213" spans="1:352" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="63"/>
+      <c r="A213" s="55"/>
       <c r="B213" s="49">
         <v>19</v>
       </c>
       <c r="C213" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D213" s="36">
         <v>0.8</v>
@@ -18055,7 +18055,7 @@
       </c>
     </row>
     <row r="214" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A214" s="62">
+      <c r="A214" s="54">
         <v>12</v>
       </c>
       <c r="B214" s="48">
@@ -18063,7 +18063,7 @@
       </c>
       <c r="C214" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", D$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paintDot'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_dot'?</v>
       </c>
       <c r="D214" s="34">
         <v>0.8</v>
@@ -18127,13 +18127,13 @@
       </c>
     </row>
     <row r="215" spans="1:352" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="62"/>
+      <c r="A215" s="54"/>
       <c r="B215" s="48">
         <v>2</v>
       </c>
       <c r="C215" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", E$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'fillEmpty'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'fill_empty'?</v>
       </c>
       <c r="D215" s="35">
         <v>0</v>
@@ -18526,13 +18526,13 @@
       <c r="MN215" s="2"/>
     </row>
     <row r="216" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A216" s="62"/>
+      <c r="A216" s="54"/>
       <c r="B216" s="48">
         <v>3</v>
       </c>
       <c r="C216" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", F$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_monochromatic'?</v>
       </c>
       <c r="D216" s="35">
         <v>0</v>
@@ -18596,13 +18596,13 @@
       </c>
     </row>
     <row r="217" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A217" s="62"/>
+      <c r="A217" s="54"/>
       <c r="B217" s="48">
         <v>4</v>
       </c>
       <c r="C217" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", G$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint square monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_square_monochromatic'?</v>
       </c>
       <c r="D217" s="35">
         <v>0</v>
@@ -18666,13 +18666,13 @@
       </c>
     </row>
     <row r="218" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A218" s="62"/>
+      <c r="A218" s="54"/>
       <c r="B218" s="48">
         <v>5</v>
       </c>
       <c r="C218" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", H$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_monochromatic'?</v>
       </c>
       <c r="D218" s="35">
         <v>0</v>
@@ -18736,13 +18736,13 @@
       </c>
     </row>
     <row r="219" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A219" s="62"/>
+      <c r="A219" s="54"/>
       <c r="B219" s="48">
         <v>6</v>
       </c>
       <c r="C219" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", I$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint L monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_l_monochromatic'?</v>
       </c>
       <c r="D219" s="35">
         <v>0</v>
@@ -18806,13 +18806,13 @@
       </c>
     </row>
     <row r="220" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A220" s="62"/>
+      <c r="A220" s="54"/>
       <c r="B220" s="48">
         <v>7</v>
       </c>
       <c r="C220" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", J$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint zigzag monochromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_zigzag_monochromatic'?</v>
       </c>
       <c r="D220" s="35">
         <v>0</v>
@@ -18876,13 +18876,13 @@
       </c>
     </row>
     <row r="221" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A221" s="62"/>
+      <c r="A221" s="54"/>
       <c r="B221" s="48">
         <v>8</v>
       </c>
       <c r="C221" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", K$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint row column polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_row_column_polychromatic'?</v>
       </c>
       <c r="D221" s="35">
         <v>0</v>
@@ -18946,13 +18946,13 @@
       </c>
     </row>
     <row r="222" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A222" s="62"/>
+      <c r="A222" s="54"/>
       <c r="B222" s="48">
         <v>9</v>
       </c>
       <c r="C222" t="str">
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", L$3, "'?")</f>
-        <v>Has the pupil used correctly, at least once, the command 'paint diagonal or zigzag polychromatic'?</v>
+        <v>Has the pupil used correctly, at least once, the command 'paint_diagonal_or_zigzag_polychromatic'?</v>
       </c>
       <c r="D222" s="35">
         <v>0</v>
@@ -19016,7 +19016,7 @@
       </c>
     </row>
     <row r="223" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A223" s="62"/>
+      <c r="A223" s="54"/>
       <c r="B223" s="48">
         <v>10</v>
       </c>
@@ -19086,12 +19086,12 @@
       </c>
     </row>
     <row r="224" spans="1:352" x14ac:dyDescent="0.2">
-      <c r="A224" s="62"/>
+      <c r="A224" s="54"/>
       <c r="B224" s="48">
         <v>11</v>
       </c>
       <c r="C224" s="46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D224" s="35">
         <v>0.8</v>
@@ -19155,12 +19155,12 @@
       </c>
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A225" s="62"/>
+      <c r="A225" s="54"/>
       <c r="B225" s="48">
         <v>12</v>
       </c>
       <c r="C225" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D225" s="35">
         <v>0.8</v>
@@ -19224,12 +19224,12 @@
       </c>
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A226" s="62"/>
+      <c r="A226" s="54"/>
       <c r="B226" s="48">
         <v>13</v>
       </c>
       <c r="C226" s="46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D226" s="35">
         <v>0.8</v>
@@ -19293,12 +19293,12 @@
       </c>
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A227" s="62"/>
+      <c r="A227" s="54"/>
       <c r="B227" s="48">
         <v>14</v>
       </c>
       <c r="C227" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D227" s="35">
         <v>0.8</v>
@@ -19362,12 +19362,12 @@
       </c>
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A228" s="62"/>
+      <c r="A228" s="54"/>
       <c r="B228" s="48">
         <v>15</v>
       </c>
       <c r="C228" s="46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D228" s="35">
         <v>0.8</v>
@@ -19431,12 +19431,12 @@
       </c>
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A229" s="62"/>
+      <c r="A229" s="54"/>
       <c r="B229" s="48">
         <v>16</v>
       </c>
       <c r="C229" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D229" s="35">
         <v>0.8</v>
@@ -19500,12 +19500,12 @@
       </c>
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A230" s="62"/>
+      <c r="A230" s="54"/>
       <c r="B230" s="48">
         <v>17</v>
       </c>
       <c r="C230" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D230" s="35">
         <v>0.8</v>
@@ -19569,12 +19569,12 @@
       </c>
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A231" s="62"/>
+      <c r="A231" s="54"/>
       <c r="B231" s="48">
         <v>18</v>
       </c>
       <c r="C231" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D231" s="35">
         <v>0.8</v>
@@ -19638,12 +19638,12 @@
       </c>
     </row>
     <row r="232" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="63"/>
+      <c r="A232" s="55"/>
       <c r="B232" s="49">
         <v>19</v>
       </c>
       <c r="C232" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D232" s="36">
         <v>0.8</v>
@@ -20416,149 +20416,155 @@
       <c r="A416" s="18"/>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" s="55">
+      <c r="A417" s="50">
         <v>21</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" s="56"/>
+      <c r="A418" s="51"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" s="56"/>
+      <c r="A419" s="51"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" s="56"/>
+      <c r="A420" s="51"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" s="56"/>
+      <c r="A421" s="51"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" s="56"/>
+      <c r="A422" s="51"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" s="56"/>
+      <c r="A423" s="51"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" s="56"/>
+      <c r="A424" s="51"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" s="56"/>
+      <c r="A425" s="51"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" s="56"/>
+      <c r="A426" s="51"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" s="56"/>
+      <c r="A427" s="51"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" s="56"/>
+      <c r="A428" s="51"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" s="56"/>
+      <c r="A429" s="51"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" s="56"/>
+      <c r="A430" s="51"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" s="56"/>
+      <c r="A431" s="51"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" s="56"/>
+      <c r="A432" s="51"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" s="56"/>
+      <c r="A433" s="51"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" s="56"/>
+      <c r="A434" s="51"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" s="56"/>
+      <c r="A435" s="51"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" s="56"/>
+      <c r="A436" s="51"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" s="56"/>
+      <c r="A437" s="51"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" s="56"/>
+      <c r="A438" s="51"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" s="57"/>
+      <c r="A439" s="52"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" s="55">
+      <c r="A440" s="50">
         <v>22</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" s="56"/>
+      <c r="A441" s="51"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" s="56"/>
+      <c r="A442" s="51"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" s="56"/>
+      <c r="A443" s="51"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" s="56"/>
+      <c r="A444" s="51"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" s="56"/>
+      <c r="A445" s="51"/>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" s="56"/>
+      <c r="A446" s="51"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" s="56"/>
+      <c r="A447" s="51"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" s="56"/>
+      <c r="A448" s="51"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" s="56"/>
+      <c r="A449" s="51"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" s="56"/>
+      <c r="A450" s="51"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" s="56"/>
+      <c r="A451" s="51"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" s="56"/>
+      <c r="A452" s="51"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" s="56"/>
+      <c r="A453" s="51"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" s="56"/>
+      <c r="A454" s="51"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" s="56"/>
+      <c r="A455" s="51"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" s="56"/>
+      <c r="A456" s="51"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" s="56"/>
+      <c r="A457" s="51"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" s="56"/>
+      <c r="A458" s="51"/>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" s="56"/>
+      <c r="A459" s="51"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" s="56"/>
+      <c r="A460" s="51"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" s="56"/>
+      <c r="A461" s="51"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" s="57"/>
+      <c r="A462" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="A417:A439"/>
+    <mergeCell ref="A1:A4"/>
     <mergeCell ref="A440:A462"/>
     <mergeCell ref="A5:A23"/>
     <mergeCell ref="A24:A42"/>
@@ -20572,12 +20578,6 @@
     <mergeCell ref="A176:A194"/>
     <mergeCell ref="A195:A213"/>
     <mergeCell ref="A214:A232"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="A417:A439"/>
-    <mergeCell ref="A1:A4"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:V232 H233">
     <cfRule type="colorScale" priority="76">
